--- a/VSSC Feedback June 2021 (version 1).xlsx
+++ b/VSSC Feedback June 2021 (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VHAPORSUNC\source\repos\VSSC\IPRehab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4A0BC-B318-40BE-BDE2-B3A86F693D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C3519-04D2-4598-ACA3-26F55C2BBD74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="5" xr2:uid="{D57B31B5-7152-463E-ABC6-71BF39CFCF39}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="2" activeTab="6" xr2:uid="{D57B31B5-7152-463E-ABC6-71BF39CFCF39}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Questions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Sample - Follow Up" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t>Q 17 "Pre-hospital Living with"</t>
   </si>
@@ -203,6 +202,12 @@
   </si>
   <si>
     <t>not the same as IRF-PAI V4</t>
+  </si>
+  <si>
+    <t>GG0170Q3</t>
+  </si>
+  <si>
+    <t>GG0170Q2</t>
   </si>
 </sst>
 </file>
@@ -348,13 +353,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,7 +718,7 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -728,7 +733,7 @@
       <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -743,7 +748,7 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -758,7 +763,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -773,7 +778,7 @@
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -871,7 +876,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -880,19 +885,19 @@
       <c r="C1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -914,7 +919,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A2:XFD3"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,7 +943,7 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -968,7 +973,7 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1034,8 +1039,8 @@
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>51</v>
+      <c r="C16" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1107,9 +1112,9 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A24" sqref="A24:XFD26"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1146,8 +1151,8 @@
       <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>52</v>
+      <c r="C4" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1161,7 +1166,7 @@
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1176,7 +1181,7 @@
       <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1191,7 +1196,7 @@
       <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1206,7 +1211,7 @@
       <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1257,7 +1262,7 @@
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1271,6 +1276,9 @@
       </c>
       <c r="B22" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1310,7 +1318,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24:XFD26"/>
     </sheetView>
   </sheetViews>
@@ -1344,10 +1352,10 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1372,7 +1380,7 @@
       <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1387,8 +1395,8 @@
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>52</v>
+      <c r="C4" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1402,7 +1410,7 @@
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1417,6 +1425,9 @@
       <c r="B8" s="9" t="s">
         <v>46</v>
       </c>
+      <c r="C8" s="21" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -1429,7 +1440,7 @@
       <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>51</v>
       </c>
     </row>

--- a/VSSC Feedback June 2021 (version 1).xlsx
+++ b/VSSC Feedback June 2021 (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VHAPORSUNC\source\repos\VSSC\IPRehab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C3519-04D2-4598-ACA3-26F55C2BBD74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D905DB-8EFE-4CB3-81DE-09EFAF21295B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="2" activeTab="6" xr2:uid="{D57B31B5-7152-463E-ABC6-71BF39CFCF39}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="2" activeTab="6" xr2:uid="{D57B31B5-7152-463E-ABC6-71BF39CFCF39}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Questions" sheetId="1" r:id="rId1"/>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A24" sqref="A24:XFD26"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
